--- a/Poblacion_choco.xlsx
+++ b/Poblacion_choco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9923CE2C-884A-450C-8D37-DE6716457E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A4B824-1997-41FB-83A5-58CFEED267DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CDE514BC-2880-4A61-BEF3-4C374C6810C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Acandí</t>
   </si>
@@ -137,10 +137,49 @@
     <t>Habitantes_2018</t>
   </si>
   <si>
-    <t>Anio_fundacion</t>
-  </si>
-  <si>
     <t>Municipio</t>
+  </si>
+  <si>
+    <t>ALTO_BAUDO</t>
+  </si>
+  <si>
+    <t>BOJAYA</t>
+  </si>
+  <si>
+    <t>BAJO_BAUDO</t>
+  </si>
+  <si>
+    <t>ATRATO</t>
+  </si>
+  <si>
+    <t>RIO_IRO</t>
+  </si>
+  <si>
+    <t>BAHIA_SOLANO</t>
+  </si>
+  <si>
+    <t>MEDIO_BAUDO</t>
+  </si>
+  <si>
+    <t>EL_LITORAL_DEL_SAN_JUAN</t>
+  </si>
+  <si>
+    <t>RIO_QUITO</t>
+  </si>
+  <si>
+    <t>MEDIO_SAN_JUAN</t>
+  </si>
+  <si>
+    <t>EL_CANTON_DEL_SAN_PABLO</t>
+  </si>
+  <si>
+    <t>UNION_PANAMERICANA</t>
+  </si>
+  <si>
+    <t>CARMEN_DEL_DARIEN</t>
+  </si>
+  <si>
+    <t>MEDIO_ATRATO</t>
   </si>
 </sst>
 </file>
@@ -184,9 +223,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,20 +541,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E48FCC5-B2C9-4FF9-A457-2BE022C940C5}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
@@ -522,11 +563,8 @@
       <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -536,11 +574,8 @@
       <c r="C2">
         <v>9505</v>
       </c>
-      <c r="D2">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -550,11 +585,8 @@
       <c r="C3">
         <v>37706</v>
       </c>
-      <c r="D3">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -564,11 +596,8 @@
       <c r="C4">
         <v>10195</v>
       </c>
-      <c r="D4">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -578,11 +607,8 @@
       <c r="C5">
         <v>8016</v>
       </c>
-      <c r="D5">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -592,11 +618,8 @@
       <c r="C6">
         <v>9351</v>
       </c>
-      <c r="D6">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -606,11 +629,8 @@
       <c r="C7">
         <v>17507</v>
       </c>
-      <c r="D7">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -620,11 +640,8 @@
       <c r="C8">
         <v>26304</v>
       </c>
-      <c r="D8">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -634,11 +651,8 @@
       <c r="C9">
         <v>10106</v>
       </c>
-      <c r="D9">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -648,11 +662,8 @@
       <c r="C10">
         <v>10109</v>
       </c>
-      <c r="D10">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -662,11 +673,8 @@
       <c r="C11">
         <v>14825</v>
       </c>
-      <c r="D11">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -676,11 +684,8 @@
       <c r="C12">
         <v>8175</v>
       </c>
-      <c r="D12">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -690,11 +695,8 @@
       <c r="C13">
         <v>14292</v>
       </c>
-      <c r="D13">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -704,11 +706,8 @@
       <c r="C14">
         <v>5492</v>
       </c>
-      <c r="D14">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -718,11 +717,8 @@
       <c r="C15">
         <v>15619</v>
       </c>
-      <c r="D15">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -732,11 +728,8 @@
       <c r="C16">
         <v>25519</v>
       </c>
-      <c r="D16">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -746,11 +739,8 @@
       <c r="C17">
         <v>3295</v>
       </c>
-      <c r="D17">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -760,11 +750,8 @@
       <c r="C18">
         <v>11284</v>
       </c>
-      <c r="D18">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -774,11 +761,8 @@
       <c r="C19">
         <v>30462</v>
       </c>
-      <c r="D19">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -788,11 +772,8 @@
       <c r="C20">
         <v>13750</v>
       </c>
-      <c r="D20">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -802,11 +783,8 @@
       <c r="C21">
         <v>16684</v>
       </c>
-      <c r="D21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -816,11 +794,8 @@
       <c r="C22">
         <v>7956</v>
       </c>
-      <c r="D22">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -830,11 +805,8 @@
       <c r="C23">
         <v>8668</v>
       </c>
-      <c r="D23">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -844,11 +816,8 @@
       <c r="C24">
         <v>115937</v>
       </c>
-      <c r="D24">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -858,11 +827,8 @@
       <c r="C25">
         <v>9863</v>
       </c>
-      <c r="D25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -872,11 +838,8 @@
       <c r="C26">
         <v>9062</v>
       </c>
-      <c r="D26">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -886,11 +849,8 @@
       <c r="C27">
         <v>28877</v>
       </c>
-      <c r="D27">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -900,11 +860,8 @@
       <c r="C28">
         <v>4803</v>
       </c>
-      <c r="D28">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -914,11 +871,8 @@
       <c r="C29">
         <v>4097</v>
       </c>
-      <c r="D29">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -928,11 +882,8 @@
       <c r="C30">
         <v>18979</v>
       </c>
-      <c r="D30">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -942,11 +893,8 @@
       <c r="C31">
         <v>15164</v>
       </c>
-      <c r="D31">
-        <v>1908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -956,8 +904,159 @@
       <c r="C32">
         <v>9748</v>
       </c>
-      <c r="D32">
-        <v>1999</v>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>1532</v>
+      </c>
+      <c r="C33">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>3424</v>
+      </c>
+      <c r="C34">
+        <v>17402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>3693</v>
+      </c>
+      <c r="C35">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1017</v>
+      </c>
+      <c r="C36">
+        <v>13819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2">
+        <v>520</v>
+      </c>
+      <c r="C37">
+        <v>9695</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1667</v>
+      </c>
+      <c r="C38">
+        <v>9327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4840</v>
+      </c>
+      <c r="C39">
+        <v>13560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3755</v>
+      </c>
+      <c r="C40">
+        <v>15251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2">
+        <v>700</v>
+      </c>
+      <c r="C41">
+        <v>8961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2">
+        <v>620</v>
+      </c>
+      <c r="C42">
+        <v>15945</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2">
+        <v>386</v>
+      </c>
+      <c r="C43">
+        <v>7970</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2">
+        <v>147</v>
+      </c>
+      <c r="C44">
+        <v>9592</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2">
+        <v>4700</v>
+      </c>
+      <c r="C45">
+        <v>11916</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2">
+        <v>562</v>
+      </c>
+      <c r="C46">
+        <v>29489</v>
       </c>
     </row>
   </sheetData>
